--- a/Advance Stock/Order Requirement.xlsx
+++ b/Advance Stock/Order Requirement.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Advance Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334B9A00-38DE-4C80-A55E-51366367B089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E97EDF-36BA-4102-B6CC-6D7D98AEC129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$98</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>Sku Code</t>
   </si>
@@ -40,13 +43,268 @@
   </si>
   <si>
     <t>ECSTAR PETROL 0W-20-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90 - 4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 4 X 3 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4 X 3 L</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</t>
+  </si>
+  <si>
+    <t>SERVO FUTURA NXT 0W-16-4X3.5 L PROMO LUBE</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-16 FE-210 L</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-210 L</t>
+  </si>
+  <si>
+    <t>HY SERVO PETROL EO SN PLUS-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HY SERVO SYNTH 0W-30 SP/C3-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HY.SERVO ENGINE OIL 5W-30-4x3.5L</t>
+  </si>
+  <si>
+    <t>HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO COOLANT 50-20 X 1 L</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO CRDi PREM.ENG.OIL 4X5L-HDP</t>
+  </si>
+  <si>
+    <t>IOC CLEARBLUE-10 L</t>
+  </si>
+  <si>
+    <t>IOC CLEARBLUE-20 L</t>
+  </si>
+  <si>
+    <t>MGDO 15W-40 - 4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>MGGO 80W-90 - 4 X 2.1 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4x3.5L HDPE</t>
+  </si>
+  <si>
+    <t>S FLEET SUPREME CI4PLUS 15W-40-210 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME (JFC) - 200X60ML - POU</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME(JFC)-300x40ML - POU</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-20X1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-600 X 20 ML</t>
+  </si>
+  <si>
+    <t>SERVO 4T - 20 X 1 L HDPE PROMO</t>
+  </si>
+  <si>
+    <t>SERVO 4T XTRA 10W-30-20 X 0.9 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID DOT 4-20 X 1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID DOT 4-20 X 1/4 L</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID SUPER HD - 20X1/4L-HDP</t>
+  </si>
+  <si>
+    <t>SERVO BRAKE FLUID SUPER HD -20X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO FLEET CF4 15W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO FUTURA G PLUS 5W-30-4 X 3 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO FUTURA G PLUS 5W-30-4X3.5 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-40X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 20 X 1 L HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO GREASE MP 3 - 10 X 1 KG CTN</t>
+  </si>
+  <si>
+    <t>SERVO GREASE MP 3 - 20 X 1/2 KG CTN</t>
+  </si>
+  <si>
+    <t>SERVO GREENMILE-4 X 3.5 L LUBE</t>
+  </si>
+  <si>
+    <t>SERVO HONDA JOSH-20 X 0.9 L</t>
+  </si>
+  <si>
+    <t>SERVO HONDA SCOOTONXT-20 X 0.8 L</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS -210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS-20X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO KOOL PLUS-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-15 L</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-40X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4X5L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 20x1L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W-40- 4 X 5L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40 - 20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-10L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-15L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-7.5L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-15L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-20 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO SCOOTOMATIC 4ST 10W-30-20 X 0.8 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-10 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-20 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-40X1/2L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPERIOR EO 0W20 SN PLUS-50 L</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-20X1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 - 182 KG DRM</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 - 5 KG BUC</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 -20 KG BUC</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3-4X3 KG</t>
+  </si>
+  <si>
+    <t>SERVOHYDRASHAKTI 68-20 L</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 32-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68-210 L HD</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM 68-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVOSYSTEM HLP 68 - 210L BRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,21 +319,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +338,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF0F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,26 +369,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -134,18 +387,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -469,7 +735,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51" thickBot="1" x14ac:dyDescent="0.35">
@@ -479,177 +747,1076 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>2502184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2502234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>7427213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>7600184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>7600203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>7688203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7421234</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7271111</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>7271111</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7079401</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7427401</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>7427213</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>7420213</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>7420213</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>7209213</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2968213</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2557195</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>7232184</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>7638234</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>7638234</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>7205222</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>7330242</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>7330265</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>7670213</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2540199</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>7600184</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>7600203</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>7688203</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>7688213</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>7470401</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>2900145</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>2900125</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>2900184</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>2900175</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>2900103</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>2924229</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>2829230</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>2914175</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>2914165</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>2909165</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>2909175</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>7472184</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>2967204</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>2967111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>2502401</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>2502234</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>7427213</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>2502184</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>2502174</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>7427213</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>7511184</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>7511401</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>7705313</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>7705303</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>7211213</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>2927152</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>2933156</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>7584401</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>7584175</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>7584184</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="7">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>7577401</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>7577256</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>7577184</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>7577174</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>7577234</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>7577240</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>1404184</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>1404184</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>1404234</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>7556234</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>7556184</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>7556241</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>7556253</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>7556250</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>7489253</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>7489265</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>7489184</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>7489234</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>2889156</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>7485242</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>7485265</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>7485184</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>7485174</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>7485234</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>7485251</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>7208271</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>4906175</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>4906184</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>7705451</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>7705339</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>7705341</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>7705337</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>3040265</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>3001265</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>3006401</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>3006265</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>3006403</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>3006234</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>3084401</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
